--- a/Xen Jakaria/Daily Work Progress.xlsx
+++ b/Xen Jakaria/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\Xen Jakaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nane:</t>
   </si>
   <si>
-    <t>Sakib Bin Rafi</t>
-  </si>
-  <si>
     <t>Designation:</t>
   </si>
   <si>
-    <t>Assistant Engineer</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -50,7 +44,16 @@
     <t>14/12/2021</t>
   </si>
   <si>
-    <t>Jakaria Pervez</t>
+    <t>Ibstallation of Autodek Revit 2018 and Tutorial for 3D drafting of Regulator</t>
+  </si>
+  <si>
+    <t>A.K.M Saifuddin</t>
+  </si>
+  <si>
+    <t>Jakaria Pervevez</t>
+  </si>
+  <si>
+    <t>Executive Engineer</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,54 +396,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Xen Jakaria/Daily Work Progress.xlsx
+++ b/Xen Jakaria/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Nane:</t>
   </si>
@@ -44,9 +44,6 @@
     <t>14/12/2021</t>
   </si>
   <si>
-    <t>Ibstallation of Autodek Revit 2018 and Tutorial for 3D drafting of Regulator</t>
-  </si>
-  <si>
     <t>A.K.M Saifuddin</t>
   </si>
   <si>
@@ -54,6 +51,51 @@
   </si>
   <si>
     <t>Executive Engineer</t>
+  </si>
+  <si>
+    <t>Installation of Autodek Revit 2018 and Tutorial for 3D drafting of Regulator</t>
+  </si>
+  <si>
+    <t>15/12/2021</t>
+  </si>
+  <si>
+    <t>Revit Tutorial</t>
+  </si>
+  <si>
+    <t>16/12/2022</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>Sannashi to Kawlia Design and Cost Analysis</t>
+  </si>
+  <si>
+    <t>18/12/2022</t>
+  </si>
+  <si>
+    <t>19/12/2022</t>
+  </si>
+  <si>
+    <t>20/12/2022</t>
+  </si>
+  <si>
+    <t>21/12/2022</t>
+  </si>
+  <si>
+    <t>22/12/2022</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>Sannashi to Kawlia Draft Sent to Field Office</t>
   </si>
 </sst>
 </file>
@@ -103,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -113,6 +155,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -412,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -420,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,16 +484,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Xen Jakaria/Daily Work Progress.xlsx
+++ b/Xen Jakaria/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Nane:</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Sannashi to Kawlia Draft Sent to Field Office</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:Basic Class</t>
   </si>
 </sst>
 </file>
@@ -446,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,8 +590,12 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Xen Jakaria/Daily Work Progress.xlsx
+++ b/Xen Jakaria/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Nane:</t>
   </si>
@@ -89,9 +89,6 @@
     <t>22/12/2022</t>
   </si>
   <si>
-    <t>22/12/2023</t>
-  </si>
-  <si>
     <t>Casual Leave</t>
   </si>
   <si>
@@ -99,6 +96,21 @@
   </si>
   <si>
     <t>Regulator Drafting Program:Basic Class</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2024</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:USBR ERC Basin Design Equation</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:PLAN Drawing:Appron</t>
   </si>
 </sst>
 </file>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -580,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -588,12 +600,34 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress.xlsx
+++ b/Xen Jakaria/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Nane:</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
     <t>A.K.M Saifuddin</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Installation of Autodek Revit 2018 and Tutorial for 3D drafting of Regulator</t>
   </si>
   <si>
-    <t>15/12/2021</t>
-  </si>
-  <si>
     <t>Revit Tutorial</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>17/12/2023</t>
-  </si>
-  <si>
     <t>Sannashi to Kawlia Design and Cost Analysis</t>
   </si>
   <si>
@@ -98,19 +89,31 @@
     <t>Regulator Drafting Program:Basic Class</t>
   </si>
   <si>
-    <t>28/12/2023</t>
-  </si>
-  <si>
-    <t>29/12/2024</t>
-  </si>
-  <si>
     <t>Regulator Drafting Program:USBR ERC Basin Design Equation</t>
   </si>
   <si>
-    <t>30/12/2025</t>
-  </si>
-  <si>
     <t>Regulator Drafting Program:PLAN Drawing:Appron</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>15/12/2022</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>28/12/2022</t>
+  </si>
+  <si>
+    <t>29/12/2022</t>
+  </si>
+  <si>
+    <t>30/12/2022</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:PLAN Drawing:2D Affine Transformation</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,11 +159,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,22 +182,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,138 +526,152 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
